--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\CPU_8Bit\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Monty08\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED0EEC2-16C9-4523-92BB-D00FB37372C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ABBCC8-36C2-42AD-85BD-618AF095F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU-PROM (2)" sheetId="6" r:id="rId1"/>
@@ -2963,6 +2963,58 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3073,58 +3125,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3709,31 +3709,31 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="290"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="296" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="297"/>
-      <c r="Q3" s="297"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="297"/>
-      <c r="T3" s="297"/>
-      <c r="U3" s="297"/>
-      <c r="V3" s="297"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="298"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="257"/>
       <c r="Y3" s="76"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
@@ -3741,20 +3741,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="286"/>
-      <c r="AG3" s="286"/>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="286"/>
+      <c r="AF3" s="258"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="258"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="293"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="295"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="254"/>
       <c r="I4" s="52">
         <v>0</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="X4" s="53">
         <v>15</v>
       </c>
-      <c r="Y4" s="302" t="s">
+      <c r="Y4" s="259" t="s">
         <v>91</v>
       </c>
       <c r="Z4" s="45"/>
@@ -3822,28 +3822,28 @@
       <c r="B5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="287" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="288"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="287" t="s">
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="288"/>
-      <c r="R5" s="289"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="265"/>
+      <c r="R5" s="266"/>
       <c r="S5" s="20" t="s">
         <v>77</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="X5" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Y5" s="303"/>
+      <c r="Y5" s="260"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -9126,31 +9126,31 @@
   <sheetData>
     <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B3" s="290"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="296" t="s">
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="297"/>
-      <c r="Q3" s="297"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="297"/>
-      <c r="T3" s="297"/>
-      <c r="U3" s="297"/>
-      <c r="V3" s="297"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="298"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="256"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="257"/>
       <c r="Y3" s="76"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51"/>
@@ -9158,20 +9158,20 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="286"/>
-      <c r="AG3" s="286"/>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="286"/>
+      <c r="AF3" s="258"/>
+      <c r="AG3" s="258"/>
+      <c r="AH3" s="258"/>
+      <c r="AI3" s="258"/>
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B4" s="293"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="295"/>
+      <c r="B4" s="252"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="254"/>
       <c r="I4" s="52">
         <v>0</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="X4" s="53">
         <v>15</v>
       </c>
-      <c r="Y4" s="302" t="s">
+      <c r="Y4" s="259" t="s">
         <v>91</v>
       </c>
       <c r="Z4" s="45"/>
@@ -9239,28 +9239,28 @@
       <c r="B5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="299" t="s">
+      <c r="C5" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="287" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="288"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="288"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="289"/>
-      <c r="O5" s="287" t="s">
+      <c r="J5" s="265"/>
+      <c r="K5" s="265"/>
+      <c r="L5" s="265"/>
+      <c r="M5" s="265"/>
+      <c r="N5" s="266"/>
+      <c r="O5" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="P5" s="288"/>
-      <c r="Q5" s="288"/>
-      <c r="R5" s="289"/>
+      <c r="P5" s="265"/>
+      <c r="Q5" s="265"/>
+      <c r="R5" s="266"/>
       <c r="S5" s="20" t="s">
         <v>77</v>
       </c>
@@ -9279,7 +9279,7 @@
       <c r="X5" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="Y5" s="303"/>
+      <c r="Y5" s="260"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -14490,7 +14490,7 @@
   <dimension ref="A2:AI157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10:AF137"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14518,50 +14518,50 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="251" t="s">
+      <c r="C5" s="269" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="252"/>
-      <c r="F5" s="252"/>
-      <c r="G5" s="252"/>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="253"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="270"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="270"/>
+      <c r="J5" s="270"/>
+      <c r="K5" s="270"/>
+      <c r="L5" s="271"/>
       <c r="M5" s="123"/>
-      <c r="N5" s="265" t="s">
+      <c r="N5" s="283" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="265"/>
-      <c r="P5" s="265"/>
-      <c r="Q5" s="265"/>
-      <c r="R5" s="265"/>
-      <c r="S5" s="265"/>
-      <c r="T5" s="265"/>
-      <c r="U5" s="265"/>
-      <c r="V5" s="265"/>
-      <c r="W5" s="265"/>
-      <c r="X5" s="265"/>
-      <c r="Y5" s="265"/>
-      <c r="Z5" s="265"/>
-      <c r="AA5" s="265"/>
-      <c r="AB5" s="265"/>
-      <c r="AC5" s="266"/>
-      <c r="AD5" s="249"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="283"/>
+      <c r="Q5" s="283"/>
+      <c r="R5" s="283"/>
+      <c r="S5" s="283"/>
+      <c r="T5" s="283"/>
+      <c r="U5" s="283"/>
+      <c r="V5" s="283"/>
+      <c r="W5" s="283"/>
+      <c r="X5" s="283"/>
+      <c r="Y5" s="283"/>
+      <c r="Z5" s="283"/>
+      <c r="AA5" s="283"/>
+      <c r="AB5" s="283"/>
+      <c r="AC5" s="284"/>
+      <c r="AD5" s="267"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C6" s="254"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
-      <c r="G6" s="255"/>
-      <c r="H6" s="255"/>
-      <c r="I6" s="255"/>
-      <c r="J6" s="255"/>
-      <c r="K6" s="255"/>
-      <c r="L6" s="256"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="274"/>
       <c r="M6" s="13"/>
       <c r="N6" s="4">
         <v>0</v>
@@ -14611,7 +14611,7 @@
       <c r="AC6" s="124">
         <v>15</v>
       </c>
-      <c r="AD6" s="250"/>
+      <c r="AD6" s="268"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -14619,11 +14619,11 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C7" s="257"/>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="258"/>
-      <c r="G7" s="258"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
       <c r="H7" s="240"/>
       <c r="I7" s="24" t="s">
         <v>68</v>
@@ -14634,12 +14634,12 @@
       <c r="K7" s="18"/>
       <c r="L7" s="25"/>
       <c r="M7" s="121"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="267"/>
-      <c r="Q7" s="267"/>
-      <c r="R7" s="267"/>
-      <c r="S7" s="267"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="285"/>
+      <c r="Q7" s="285"/>
+      <c r="R7" s="285"/>
+      <c r="S7" s="285"/>
       <c r="T7" s="5" t="s">
         <v>111</v>
       </c>
@@ -14662,61 +14662,61 @@
       <c r="AA7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AB7" s="268" t="s">
+      <c r="AB7" s="286" t="s">
         <v>117</v>
       </c>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="250"/>
+      <c r="AC7" s="287"/>
+      <c r="AD7" s="268"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="277" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
       <c r="H8" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="I8" s="261" t="s">
+      <c r="I8" s="279" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="263"/>
-      <c r="M8" s="264" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="264"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="273" t="s">
+      <c r="J8" s="280"/>
+      <c r="K8" s="280"/>
+      <c r="L8" s="281"/>
+      <c r="M8" s="282" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="282"/>
+      <c r="O8" s="282"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="282"/>
+      <c r="R8" s="282"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="291" t="s">
         <v>120</v>
       </c>
-      <c r="U8" s="273"/>
-      <c r="V8" s="274" t="s">
+      <c r="U8" s="291"/>
+      <c r="V8" s="292" t="s">
         <v>121</v>
       </c>
-      <c r="W8" s="274"/>
-      <c r="X8" s="274"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="272" t="s">
+      <c r="W8" s="292"/>
+      <c r="X8" s="292"/>
+      <c r="Y8" s="292"/>
+      <c r="Z8" s="290" t="s">
         <v>118</v>
       </c>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="270" t="s">
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="288" t="s">
         <v>119</v>
       </c>
-      <c r="AC8" s="271"/>
-      <c r="AD8" s="250"/>
+      <c r="AC8" s="289"/>
+      <c r="AD8" s="268"/>
       <c r="AE8" s="118"/>
       <c r="AF8" s="118"/>
       <c r="AG8" s="118"/>
@@ -26269,61 +26269,61 @@
       <c r="F5" s="163" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="275" t="s">
+      <c r="G5" s="293" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F6" s="162"/>
-      <c r="G6" s="276"/>
+      <c r="G6" s="294"/>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F7" s="162"/>
-      <c r="G7" s="276"/>
+      <c r="G7" s="294"/>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F8" s="162"/>
-      <c r="G8" s="276"/>
+      <c r="G8" s="294"/>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F9" s="162"/>
-      <c r="G9" s="276"/>
+      <c r="G9" s="294"/>
     </row>
     <row r="10" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F10" s="162"/>
-      <c r="G10" s="276"/>
+      <c r="G10" s="294"/>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F11" s="162"/>
-      <c r="G11" s="276"/>
+      <c r="G11" s="294"/>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" s="162"/>
-      <c r="G12" s="276"/>
+      <c r="G12" s="294"/>
     </row>
     <row r="13" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F13" s="162"/>
-      <c r="G13" s="276"/>
+      <c r="G13" s="294"/>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" s="162"/>
-      <c r="G14" s="276"/>
+      <c r="G14" s="294"/>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F15" s="162"/>
-      <c r="G15" s="276"/>
+      <c r="G15" s="294"/>
     </row>
     <row r="16" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="164" t="s">
         <v>211</v>
       </c>
-      <c r="G16" s="277"/>
+      <c r="G16" s="295"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="162" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="278" t="s">
+      <c r="G17" s="296" t="s">
         <v>210</v>
       </c>
     </row>
@@ -26331,83 +26331,83 @@
       <c r="F18" s="164" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="279"/>
+      <c r="G18" s="297"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="162" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="280" t="s">
+      <c r="G19" s="298" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="162"/>
-      <c r="G20" s="281"/>
+      <c r="G20" s="299"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="162"/>
-      <c r="G21" s="281"/>
+      <c r="G21" s="299"/>
     </row>
     <row r="22" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="282"/>
+      <c r="G22" s="300"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="G23" s="283" t="s">
+      <c r="G23" s="301" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="162"/>
-      <c r="G24" s="284"/>
+      <c r="G24" s="302"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="162"/>
-      <c r="G25" s="284"/>
+      <c r="G25" s="302"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="162"/>
-      <c r="G26" s="284"/>
+      <c r="G26" s="302"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="162"/>
-      <c r="G27" s="284"/>
+      <c r="G27" s="302"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="162"/>
-      <c r="G28" s="284"/>
+      <c r="G28" s="302"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="162"/>
-      <c r="G29" s="284"/>
+      <c r="G29" s="302"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="162"/>
-      <c r="G30" s="284"/>
+      <c r="G30" s="302"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="162"/>
-      <c r="G31" s="284"/>
+      <c r="G31" s="302"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="162"/>
-      <c r="G32" s="284"/>
+      <c r="G32" s="302"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="162"/>
-      <c r="G33" s="284"/>
+      <c r="G33" s="302"/>
     </row>
     <row r="34" spans="6:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F34" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="285"/>
+      <c r="G34" s="303"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="162" t="s">
@@ -27877,14 +27877,14 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="D18" s="294" t="s">
+      <c r="D18" s="253" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="294"/>
-      <c r="G18" s="294" t="s">
+      <c r="E18" s="253"/>
+      <c r="G18" s="253" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="294"/>
+      <c r="H18" s="253"/>
       <c r="Q18">
         <v>2</v>
       </c>

--- a/Documentation/Monty08.xlsx
+++ b/Documentation/Monty08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Monty08\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ABBCC8-36C2-42AD-85BD-618AF095F240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89570F11-763D-4F4D-BB3D-8D045664C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
+    <workbookView xWindow="38280" yWindow="3585" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5BA4E079-EFAB-4B55-B322-C6522B3056FF}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU-PROM (2)" sheetId="6" r:id="rId1"/>
@@ -14489,8 +14489,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AI157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
